--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-with-referred-types.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-with-referred-types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanf/Documents/sissource/openbis-20.10.x/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F9B7B7-EBB1-6F4B-A017-0DDA46755F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0A11C-F3B4-D647-8FF9-A0CD0562DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30300" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,9 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
